--- a/Metricas de Software/Contagem Projeto Desenvolvimento APF - Trabalho.xlsx
+++ b/Metricas de Software/Contagem Projeto Desenvolvimento APF - Trabalho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\20170510\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600315\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Desenvolvimento" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alterado para AIE porque hoje será somente instanciado e não mantido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alterado de 7 para 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alterado de 7 para 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alterado de 1 para 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+alterado de 7 para 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Deve ser considerado, pois é um log de sistema e não técnico
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t xml:space="preserve"> Contagem Detalhada de Pontos de Função - Projeto de Desenvolvimento</t>
   </si>
@@ -152,13 +297,100 @@
   </si>
   <si>
     <t>Pessoa</t>
+  </si>
+  <si>
+    <t>AIE</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Incluir Empresa</t>
+  </si>
+  <si>
+    <t>Alterar Empresa</t>
+  </si>
+  <si>
+    <t>Excluir Empresa</t>
+  </si>
+  <si>
+    <t>Consultar Empresa</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Incluir Paciente</t>
+  </si>
+  <si>
+    <t>Alterar Paciente</t>
+  </si>
+  <si>
+    <t>Excluir Paciente</t>
+  </si>
+  <si>
+    <t>Consultar Paciente</t>
+  </si>
+  <si>
+    <t>Incluir Agendamento</t>
+  </si>
+  <si>
+    <t>Alterar Agendamento</t>
+  </si>
+  <si>
+    <t>Verificar Agendamento</t>
+  </si>
+  <si>
+    <t>Gerar Cobrança</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Incluir Prontuário</t>
+  </si>
+  <si>
+    <t>Alterar Prontuário</t>
+  </si>
+  <si>
+    <t>Excluir Prontuário</t>
+  </si>
+  <si>
+    <t>Imprimir Prontuário</t>
+  </si>
+  <si>
+    <t>Consultar Prontuário</t>
+  </si>
+  <si>
+    <t>Cancelar Agendamento</t>
+  </si>
+  <si>
+    <t>Incluir Log</t>
+  </si>
+  <si>
+    <t>Consultar Log</t>
+  </si>
+  <si>
+    <t>Incluir Convênio</t>
+  </si>
+  <si>
+    <t>Alterar Convênio</t>
+  </si>
+  <si>
+    <t>Excluir Convênio</t>
+  </si>
+  <si>
+    <t>Consultar Convênio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +426,16 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +451,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -292,6 +544,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -311,6 +581,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,61 +939,61 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="21">
         <v>42865</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -728,90 +1005,90 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
@@ -830,13 +1107,13 @@
       <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
@@ -857,10 +1134,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
@@ -881,12 +1158,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -901,14 +1178,14 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
@@ -929,19 +1206,19 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>23</v>
@@ -953,15 +1230,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
@@ -977,15 +1254,15 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
@@ -1001,15 +1278,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
@@ -1025,21 +1302,37 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8</v>
+      </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1049,9 +1342,13 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1061,9 +1358,13 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1073,9 +1374,13 @@
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1085,9 +1390,13 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1097,9 +1406,13 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1109,9 +1422,13 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1121,21 +1438,29 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1145,9 +1470,13 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1157,9 +1486,13 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1169,9 +1502,13 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1181,9 +1518,13 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1193,8 +1534,10 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="14"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1205,8 +1548,10 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1216,27 +1561,209 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="6">
-        <f>SUM(J14:J37)</f>
-        <v>56</v>
-      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="6">
+        <f>SUM(J14:J50)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="50">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="B7:J7"/>
@@ -1256,15 +1783,21 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A51:I51"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
